--- a/natmiOut/OldD4/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Npnt-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7599691691189721</v>
+        <v>0.9696033333333333</v>
       </c>
       <c r="H2">
-        <v>0.7599691691189721</v>
+        <v>2.90881</v>
       </c>
       <c r="I2">
-        <v>0.400411342903406</v>
+        <v>0.3086976221779292</v>
       </c>
       <c r="J2">
-        <v>0.400411342903406</v>
+        <v>0.3860913613682198</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>94.04096212451722</v>
+        <v>134.0176858694844</v>
       </c>
       <c r="R2">
-        <v>94.04096212451722</v>
+        <v>1206.15917282536</v>
       </c>
       <c r="S2">
-        <v>0.08457595062345974</v>
+        <v>0.06943299930526886</v>
       </c>
       <c r="T2">
-        <v>0.08457595062345974</v>
+        <v>0.09561934809054538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7599691691189721</v>
+        <v>0.9696033333333333</v>
       </c>
       <c r="H3">
-        <v>0.7599691691189721</v>
+        <v>2.90881</v>
       </c>
       <c r="I3">
-        <v>0.400411342903406</v>
+        <v>0.3086976221779292</v>
       </c>
       <c r="J3">
-        <v>0.400411342903406</v>
+        <v>0.3860913613682198</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>105.3227744321781</v>
+        <v>143.4182274157666</v>
       </c>
       <c r="R3">
-        <v>105.3227744321781</v>
+        <v>1290.7640467419</v>
       </c>
       <c r="S3">
-        <v>0.09472227387579388</v>
+        <v>0.07430331019310059</v>
       </c>
       <c r="T3">
-        <v>0.09472227387579388</v>
+        <v>0.102326475202328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7599691691189721</v>
+        <v>0.9696033333333333</v>
       </c>
       <c r="H4">
-        <v>0.7599691691189721</v>
+        <v>2.90881</v>
       </c>
       <c r="I4">
-        <v>0.400411342903406</v>
+        <v>0.3086976221779292</v>
       </c>
       <c r="J4">
-        <v>0.400411342903406</v>
+        <v>0.3860913613682198</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>54.18571951599503</v>
+        <v>72.0149773417911</v>
       </c>
       <c r="R4">
-        <v>54.18571951599503</v>
+        <v>648.13479607612</v>
       </c>
       <c r="S4">
-        <v>0.04873204861742541</v>
+        <v>0.03731011947640318</v>
       </c>
       <c r="T4">
-        <v>0.04873204861742541</v>
+        <v>0.05138146612144566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7599691691189721</v>
+        <v>0.9696033333333333</v>
       </c>
       <c r="H5">
-        <v>0.7599691691189721</v>
+        <v>2.90881</v>
       </c>
       <c r="I5">
-        <v>0.400411342903406</v>
+        <v>0.3086976221779292</v>
       </c>
       <c r="J5">
-        <v>0.400411342903406</v>
+        <v>0.3860913613682198</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>64.46576909392752</v>
+        <v>82.27758513171223</v>
       </c>
       <c r="R5">
-        <v>64.46576909392752</v>
+        <v>740.4982661854101</v>
       </c>
       <c r="S5">
-        <v>0.05797743430753274</v>
+        <v>0.04262705682631223</v>
       </c>
       <c r="T5">
-        <v>0.05797743430753274</v>
+        <v>0.05870366289133223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7599691691189721</v>
+        <v>0.9696033333333333</v>
       </c>
       <c r="H6">
-        <v>0.7599691691189721</v>
+        <v>2.90881</v>
       </c>
       <c r="I6">
-        <v>0.400411342903406</v>
+        <v>0.3086976221779292</v>
       </c>
       <c r="J6">
-        <v>0.400411342903406</v>
+        <v>0.3860913613682198</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>127.2067044082594</v>
+        <v>164.111274383785</v>
       </c>
       <c r="R6">
-        <v>127.2067044082594</v>
+        <v>984.6676463027101</v>
       </c>
       <c r="S6">
-        <v>0.1144036354791943</v>
+        <v>0.08502413637684435</v>
       </c>
       <c r="T6">
-        <v>0.1144036354791943</v>
+        <v>0.07806040906256849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.13800196129005</v>
+        <v>0.1353703333333333</v>
       </c>
       <c r="H7">
-        <v>1.13800196129005</v>
+        <v>0.406111</v>
       </c>
       <c r="I7">
-        <v>0.599588657096594</v>
+        <v>0.04309855234281408</v>
       </c>
       <c r="J7">
-        <v>0.599588657096594</v>
+        <v>0.05390381250635453</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>140.8199222915453</v>
+        <v>18.71076365460178</v>
       </c>
       <c r="R7">
-        <v>140.8199222915453</v>
+        <v>168.396872891416</v>
       </c>
       <c r="S7">
-        <v>0.1266467135752979</v>
+        <v>0.009693828328719321</v>
       </c>
       <c r="T7">
-        <v>0.1266467135752979</v>
+        <v>0.0133498128349392</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.13800196129005</v>
+        <v>0.1353703333333333</v>
       </c>
       <c r="H8">
-        <v>1.13800196129005</v>
+        <v>0.406111</v>
       </c>
       <c r="I8">
-        <v>0.599588657096594</v>
+        <v>0.04309855234281408</v>
       </c>
       <c r="J8">
-        <v>0.599588657096594</v>
+        <v>0.05390381250635453</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>157.7136662152733</v>
+        <v>20.02321215687666</v>
       </c>
       <c r="R8">
-        <v>157.7136662152733</v>
+        <v>180.20890941189</v>
       </c>
       <c r="S8">
-        <v>0.1418401401381477</v>
+        <v>0.01037379258385054</v>
       </c>
       <c r="T8">
-        <v>0.1418401401381477</v>
+        <v>0.01428622260336448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.13800196129005</v>
+        <v>0.1353703333333333</v>
       </c>
       <c r="H9">
-        <v>1.13800196129005</v>
+        <v>0.406111</v>
       </c>
       <c r="I9">
-        <v>0.599588657096594</v>
+        <v>0.04309855234281408</v>
       </c>
       <c r="J9">
-        <v>0.599588657096594</v>
+        <v>0.05390381250635453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>81.13941668791772</v>
+        <v>10.05430896595244</v>
       </c>
       <c r="R9">
-        <v>81.13941668791772</v>
+        <v>90.488780693572</v>
       </c>
       <c r="S9">
-        <v>0.07297291674161382</v>
+        <v>0.00520902015968096</v>
       </c>
       <c r="T9">
-        <v>0.07297291674161382</v>
+        <v>0.007173579088371677</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.13800196129005</v>
+        <v>0.1353703333333333</v>
       </c>
       <c r="H10">
-        <v>1.13800196129005</v>
+        <v>0.406111</v>
       </c>
       <c r="I10">
-        <v>0.599588657096594</v>
+        <v>0.04309855234281408</v>
       </c>
       <c r="J10">
-        <v>0.599588657096594</v>
+        <v>0.05390381250635453</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>96.53308929625311</v>
+        <v>11.48711410350789</v>
       </c>
       <c r="R10">
-        <v>96.53308929625311</v>
+        <v>103.384026931571</v>
       </c>
       <c r="S10">
-        <v>0.08681725079587861</v>
+        <v>0.005951339783207047</v>
       </c>
       <c r="T10">
-        <v>0.08681725079587861</v>
+        <v>0.008195861276763288</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1353703333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.406111</v>
+      </c>
+      <c r="I11">
+        <v>0.04309855234281408</v>
+      </c>
+      <c r="J11">
+        <v>0.05390381250635453</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>169.2560955</v>
+      </c>
+      <c r="N11">
+        <v>338.512191</v>
+      </c>
+      <c r="O11">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P11">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q11">
+        <v>22.9122540665335</v>
+      </c>
+      <c r="R11">
+        <v>137.473524399201</v>
+      </c>
+      <c r="S11">
+        <v>0.01187057148735622</v>
+      </c>
+      <c r="T11">
+        <v>0.01089833670291589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07713966666666668</v>
+      </c>
+      <c r="H12">
+        <v>0.231419</v>
+      </c>
+      <c r="I12">
+        <v>0.02455935417809833</v>
+      </c>
+      <c r="J12">
+        <v>0.0307166424608249</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N12">
+        <v>414.657256</v>
+      </c>
+      <c r="O12">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P12">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q12">
+        <v>10.66217416958489</v>
+      </c>
+      <c r="R12">
+        <v>95.95956752626401</v>
+      </c>
+      <c r="S12">
+        <v>0.005523948028996744</v>
+      </c>
+      <c r="T12">
+        <v>0.007607280611578593</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07713966666666668</v>
+      </c>
+      <c r="H13">
+        <v>0.231419</v>
+      </c>
+      <c r="I13">
+        <v>0.02455935417809833</v>
+      </c>
+      <c r="J13">
+        <v>0.0307166424608249</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>147.91433</v>
+      </c>
+      <c r="N13">
+        <v>443.74299</v>
+      </c>
+      <c r="O13">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P13">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q13">
+        <v>11.41006211142333</v>
+      </c>
+      <c r="R13">
+        <v>102.69055900281</v>
+      </c>
+      <c r="S13">
+        <v>0.005911420045165257</v>
+      </c>
+      <c r="T13">
+        <v>0.008140885985969367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07713966666666668</v>
+      </c>
+      <c r="H14">
+        <v>0.231419</v>
+      </c>
+      <c r="I14">
+        <v>0.02455935417809833</v>
+      </c>
+      <c r="J14">
+        <v>0.0307166424608249</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N14">
+        <v>222.817852</v>
+      </c>
+      <c r="O14">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P14">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q14">
+        <v>5.729364943554223</v>
+      </c>
+      <c r="R14">
+        <v>51.564284491988</v>
+      </c>
+      <c r="S14">
+        <v>0.00296831712594145</v>
+      </c>
+      <c r="T14">
+        <v>0.004087804809650281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07713966666666668</v>
+      </c>
+      <c r="H15">
+        <v>0.231419</v>
+      </c>
+      <c r="I15">
+        <v>0.02455935417809833</v>
+      </c>
+      <c r="J15">
+        <v>0.0307166424608249</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N15">
+        <v>254.570861</v>
+      </c>
+      <c r="O15">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P15">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q15">
+        <v>6.545837120195446</v>
+      </c>
+      <c r="R15">
+        <v>58.91253408175901</v>
+      </c>
+      <c r="S15">
+        <v>0.003391321833907458</v>
+      </c>
+      <c r="T15">
+        <v>0.004670343873490951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07713966666666668</v>
+      </c>
+      <c r="H16">
+        <v>0.231419</v>
+      </c>
+      <c r="I16">
+        <v>0.02455935417809833</v>
+      </c>
+      <c r="J16">
+        <v>0.0307166424608249</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>13.0563587881715</v>
+      </c>
+      <c r="R16">
+        <v>78.33815272902901</v>
+      </c>
+      <c r="S16">
+        <v>0.006764347144087426</v>
+      </c>
+      <c r="T16">
+        <v>0.006210327180135705</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06998366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.209951</v>
+      </c>
+      <c r="I17">
+        <v>0.02228106149039587</v>
+      </c>
+      <c r="J17">
+        <v>0.02786715784482971</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>9.673078394939555</v>
+      </c>
+      <c r="R17">
+        <v>87.05770555445601</v>
+      </c>
+      <c r="S17">
+        <v>0.005011509049109603</v>
+      </c>
+      <c r="T17">
+        <v>0.006901577535472614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.13800196129005</v>
-      </c>
-      <c r="H11">
-        <v>1.13800196129005</v>
-      </c>
-      <c r="I11">
-        <v>0.599588657096594</v>
-      </c>
-      <c r="J11">
-        <v>0.599588657096594</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N11">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O11">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P11">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q11">
-        <v>190.4833577310301</v>
-      </c>
-      <c r="R11">
-        <v>190.4833577310301</v>
-      </c>
-      <c r="S11">
-        <v>0.1713116358456559</v>
-      </c>
-      <c r="T11">
-        <v>0.1713116358456559</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06998366666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.209951</v>
+      </c>
+      <c r="I18">
+        <v>0.02228106149039587</v>
+      </c>
+      <c r="J18">
+        <v>0.02786715784482971</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>10.35158716594333</v>
+      </c>
+      <c r="R18">
+        <v>93.16428449348999</v>
+      </c>
+      <c r="S18">
+        <v>0.005363036526397964</v>
+      </c>
+      <c r="T18">
+        <v>0.007385682047024032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06998366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.209951</v>
+      </c>
+      <c r="I19">
+        <v>0.02228106149039587</v>
+      </c>
+      <c r="J19">
+        <v>0.02786715784482971</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>5.197870093916888</v>
+      </c>
+      <c r="R19">
+        <v>46.780830845252</v>
+      </c>
+      <c r="S19">
+        <v>0.002692955845926796</v>
+      </c>
+      <c r="T19">
+        <v>0.003708592240010051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06998366666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.209951</v>
+      </c>
+      <c r="I20">
+        <v>0.02228106149039587</v>
+      </c>
+      <c r="J20">
+        <v>0.02786715784482971</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>5.938600759756778</v>
+      </c>
+      <c r="R20">
+        <v>53.44740683781101</v>
+      </c>
+      <c r="S20">
+        <v>0.003076719760912909</v>
+      </c>
+      <c r="T20">
+        <v>0.004237091019247765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06998366666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.209951</v>
+      </c>
+      <c r="I21">
+        <v>0.02228106149039587</v>
+      </c>
+      <c r="J21">
+        <v>0.02786715784482971</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>11.8451621687735</v>
+      </c>
+      <c r="R21">
+        <v>71.07097301264101</v>
+      </c>
+      <c r="S21">
+        <v>0.0061368403080486</v>
+      </c>
+      <c r="T21">
+        <v>0.00563421500307525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.8888515</v>
+      </c>
+      <c r="H22">
+        <v>3.777703</v>
+      </c>
+      <c r="I22">
+        <v>0.6013634098107626</v>
+      </c>
+      <c r="J22">
+        <v>0.501421025819771</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>261.0753266604947</v>
+      </c>
+      <c r="R22">
+        <v>1566.451959962968</v>
+      </c>
+      <c r="S22">
+        <v>0.1352600804665028</v>
+      </c>
+      <c r="T22">
+        <v>0.1241818812984339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.8888515</v>
+      </c>
+      <c r="H23">
+        <v>3.777703</v>
+      </c>
+      <c r="I23">
+        <v>0.6013634098107626</v>
+      </c>
+      <c r="J23">
+        <v>0.501421025819771</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>279.388204091995</v>
+      </c>
+      <c r="R23">
+        <v>1676.32922455197</v>
+      </c>
+      <c r="S23">
+        <v>0.144747768585645</v>
+      </c>
+      <c r="T23">
+        <v>0.1328924998027579</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.8888515</v>
+      </c>
+      <c r="H24">
+        <v>3.777703</v>
+      </c>
+      <c r="I24">
+        <v>0.6013634098107626</v>
+      </c>
+      <c r="J24">
+        <v>0.501421025819771</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>140.2899446589927</v>
+      </c>
+      <c r="R24">
+        <v>841.7396679539559</v>
+      </c>
+      <c r="S24">
+        <v>0.07268258339821097</v>
+      </c>
+      <c r="T24">
+        <v>0.06672966564037652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.8888515</v>
+      </c>
+      <c r="H25">
+        <v>3.777703</v>
+      </c>
+      <c r="I25">
+        <v>0.6013634098107626</v>
+      </c>
+      <c r="J25">
+        <v>0.501421025819771</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>160.2821842187139</v>
+      </c>
+      <c r="R25">
+        <v>961.6931053122831</v>
+      </c>
+      <c r="S25">
+        <v>0.08304032944086939</v>
+      </c>
+      <c r="T25">
+        <v>0.0762390817604362</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.8888515</v>
+      </c>
+      <c r="H26">
+        <v>3.777703</v>
+      </c>
+      <c r="I26">
+        <v>0.6013634098107626</v>
+      </c>
+      <c r="J26">
+        <v>0.501421025819771</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>319.6996298693182</v>
+      </c>
+      <c r="R26">
+        <v>1278.798519477273</v>
+      </c>
+      <c r="S26">
+        <v>0.1656326479195345</v>
+      </c>
+      <c r="T26">
+        <v>0.1013778973177664</v>
       </c>
     </row>
   </sheetData>
